--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/66_Sakarya_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/66_Sakarya_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8370DD0F-5F21-4F78-B69A-99720176FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{138B3873-59A4-4A28-BB1E-DF94CE5A03F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="681" xr2:uid="{5EDB53AA-BA82-44CB-B186-AE9EBC27C39C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{814875D8-84DB-40E6-9E10-FE7CF3413DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -996,13 +996,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D28A9DDA-B4EA-4B2D-8F18-6FDF3572EFDD}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{991C74AB-F7FE-49E8-8726-C8008C209B9D}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{10AD7EF0-ECF0-4F54-92A0-1D7E383DD029}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7A7F64A4-CE3E-408E-8A18-81DE49C6003F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{18D463B7-85C3-40AE-9749-F49CC6414462}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{116F634F-3F52-4D6B-963C-8BD91F36A455}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{296BB0D1-9B8D-46EB-89E0-2CD33B0603A3}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{90C66916-CEF5-4E3A-8D79-09382DF700C2}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9C04BB58-2AD0-4248-A44C-99BA8B6BAB73}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E750609C-D990-4386-9CB0-876C23C0BF2C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{82F6A1CC-785D-4435-B709-4117E8BDF1CD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D1D1D74F-CCF3-4535-8F5F-34CBC367A783}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{A9E008A4-A9A3-4A95-BA59-79E91EF2C814}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9E0AD0B9-B473-405A-8ECC-E788670614A6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2D4E51-940C-4686-AB35-BB1708D2415C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE427E89-4BE5-4E5D-9849-45A0CAA5BBE2}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2670,17 +2670,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{408D1B6B-C84F-4531-B1BE-02295DEFE46C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFCA6314-41CA-4AFD-9311-8C3D962420EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{395F17AF-C319-4350-AFB2-9BA6A04B0B20}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2756F02E-947D-46F5-BC23-5F79260C7150}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71409F36-71A4-42B5-ACF2-2CFF4A107534}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3731792-BB00-4D72-A705-3D3B0E7EF22C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{181FB7B2-4330-4B34-A132-651D59735AC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58E861A2-BBAB-49EB-BDF8-0AEE8858AE31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1FEA3C36-2864-4799-84A6-52E7C7E7D9D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{20D6C37C-E7AF-4943-858F-0EEB8F92B3CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B4C497B-B4B3-4334-8836-B3716175894F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5283C05B-67E7-40A0-AD05-827A12D8DFB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D36A00F4-78EF-4042-B6AB-5A8E16D80D72}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23F285C5-D814-43FF-90B4-907A62C3B88E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{106D1D4E-597A-4BE3-9CC4-725BA4ACCABE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6146C248-D3D1-4095-AB91-7F19498E0BFE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E1939D3-23DD-46A7-B074-0E916183AAB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C014B3D6-6D05-4C57-8FC3-DF09795FC25D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6B1CF8C-252D-4145-BD9E-B84B946FF039}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{824F3C9F-B459-45C1-8CE5-0DF5A11168A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0F73C283-BC54-48EE-BCB8-4B79143E9510}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CC74B54-AA44-44DE-B62C-DCC003CA2119}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2693,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE713A6A-6F6D-4B85-99FC-9BA30BF09066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ED3AB6-2E32-45BA-82A7-41D85D654CCA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3986,17 +3986,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{504F6887-592B-4B91-9559-2555CCBCC079}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{054D2080-C210-4B09-91BF-7D763B149CBD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F142FF17-B42E-493A-8218-C53CB46FB09F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DFE0831D-3000-41D0-B7F3-2E27E5D7904E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75C98834-23DC-487F-AA00-0F444CC02DB1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC96A99F-DADD-48FB-B95E-C9A6387AE041}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B54D657E-45B0-4D8A-88CD-9F5E0C7708BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABBE673E-5BFD-4893-817A-8AB94ED75EEF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{28A06E6D-12A0-4027-9079-1AA579E5A151}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{76E4AD88-91A8-4A18-8752-E80612433F81}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C23403F-EDF2-42C7-9664-111DDC129AAA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED67497B-6808-422E-9176-70D6F9C74923}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4995F484-1D10-4B97-A37F-ACCD1D5E590F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66387519-21D7-439D-9CDE-69A58E62B53D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B31A830-50F6-477E-BDEA-B36CF75EA5FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55E4697D-C621-4C0D-B35A-DD083C496A08}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C30FF65E-C1CB-4CF2-93EA-7F120664E1A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{539C177E-1073-4854-887B-6AC382CA4562}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E425806C-9DD5-44D0-8090-01B9D5E2BD9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{799AFABC-C447-4233-8A1E-0E2E1D87CE33}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3DDECB3F-ABB4-40CB-817B-18B50D4DA1D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99622711-EA6D-4ADB-807E-A8CA103B12EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4009,7 +4009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B44FC5D-E202-4815-A018-5AABF74E29B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD047CF4-FE37-4E78-9963-EB9147DC68DC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5300,17 +5300,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFC5EDA0-2647-4DB1-8ECD-6CA2F1DF763F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62618565-543C-4080-B4A6-FFE75454A8AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{225DF040-A1AB-4C79-ADC9-9549397F66FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{947513AA-F63E-4033-9D7A-7A2474B2B2E7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6FC22FBC-CD02-4F10-A044-69E9AB8B2A8E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{19FDD24D-8593-4B23-9F59-B31B7CBF7EC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E460E1DB-A5B9-4901-846A-C7A69FDC2A7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47C5C632-3647-406F-A9DA-0C6E2F9F5FA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{449C4A19-BC50-425A-B085-923F552CB366}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EA771340-52E5-488B-8B03-401825CB8553}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA9E354A-BF53-47F2-A2F0-ABDEA3E990C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F80F5839-F4F2-453F-B0D4-DEC79FF59A6E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BAB19B10-D766-41D6-89B5-D6CD34AB86CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FED1FAB6-6C51-4736-8F39-9BC1BD281951}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57B6C1AB-72AE-46E6-921D-AF65DCFB947C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61B31799-B0F2-4574-8BE1-0094C129797B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0CC53E0-8960-4FF7-9205-D847CFC92CD0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{539D3F04-34C7-4390-9A36-2A3549E2E803}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCA6428D-EE6B-456B-8C3F-AC4E4C453D01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{313478F7-9DE1-4920-873C-90262ACBE0BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9EA9CB3D-3F39-4513-817D-CC7603FB76E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B77615E7-788A-4187-96E3-D11DFFB63775}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5323,7 +5323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A8B4B5-B685-4005-96E8-D91C6526DF0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1156629-6109-4BEA-A72D-BF9728CB7D07}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6616,17 +6616,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E80B2FAB-5CD5-4FE1-8D1D-52AD6C9B8E6D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC19E178-60DC-4175-A020-3B1095C0BC4D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A1906924-D1FD-4E27-BB69-97DEDD16ACF2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9D02FD5-DA63-4749-91C2-77E6D6701395}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB33D928-67E5-4AD9-9CFF-4CBCFF7C3436}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FCED009-992E-4789-8825-7700AB764870}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EEEC0CB-2965-4B4C-84F1-CD2A653F078C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B26D4F79-8802-41CE-B6AA-7FCC7E510FD0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{496AE0E0-647A-4560-AE09-D0005F476A59}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0C3D5D9E-0AC0-4848-B854-CCF7E84372C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31D6E9A9-C11B-481A-B61F-B3DFADE6F882}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6C38533-3C26-4FCF-A80D-740009F3E544}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4CE2F6A6-D17A-44D5-AB3A-FFA03371AC27}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2AFB397-E46F-4545-AECB-361982818914}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E10A2CFA-3CFF-41D1-ADEC-50091EEB3923}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9BDEB05-9FC9-40F6-9A9B-E75587B94ABD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF0A89DC-9A00-47BB-806E-CE1D017E9344}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03B265F4-6031-4C06-A5A7-84EE6CD24994}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FF99C1C-1169-4362-929F-CDAF1752FB38}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ECE6B03E-7826-415A-A4A8-3EF093A2AFD0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AF13F7FD-826E-4A5E-8FE0-7116E307DF65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BEFF9CB-27D2-4536-8354-8404C1157BA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6639,7 +6639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4430B608-5B50-4FE4-9D26-92C386BBED01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0916D540-FA95-4DD1-A484-0B8E102936B6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7932,17 +7932,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D63CB2A1-D738-40F9-B368-1715C88CD76C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DDBDCBF-74C6-4E28-B167-FD2433684DAC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CF2B463-5570-48BA-844B-383CEF96F797}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5F9BEC9-AFB0-41D3-AE18-A1451A46AAA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4328C148-8A61-4735-B183-E09FFD149746}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{597FAE37-FFD5-4BFF-A56C-896539B59A21}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA66EDE5-9A60-41F2-B123-154D32631AA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB0FB28A-CD3B-49A9-B76B-E749553B21B9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C8612553-2D65-40C2-8934-C21E0DB7C238}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D91B9838-9269-4F7A-89C0-5A19D221B49B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E20F7509-C46F-4D48-85EF-5D9354ACC79D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62285CC2-26A0-4573-AB13-1F4F56BC3205}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96C139D6-609A-4508-9662-D87781E2B200}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{18AF5499-BAB3-47E8-8358-DEAD3FB288F9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5533DAC3-045E-423F-A62C-710F9675D5AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0348EF8B-CAF6-4199-A059-41510CA6A6CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2DCAABE6-74E1-4074-A66D-01F3EF00C576}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{409ABE4D-E14D-4A07-82D9-A3828CAB3B4B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13DA2A26-530C-4107-8E46-F82236E1330D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{53EB7B8C-5914-4475-A31E-0A751F40A8EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C025DCE5-C834-431B-BB4A-75ABE343D6CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE240DCC-A5F3-490F-8276-33818CA1D799}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7955,7 +7955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98B246-5272-4F7F-AE89-29F4C5BE744E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265FF537-A1C8-47E7-A94D-E03C30A09CCF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9248,17 +9248,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A0F518A-94A7-45DF-B8B6-3721DE1566BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{012371A5-809F-4B57-8B6A-7ACDD378CCCE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9FA5FCD-3795-4F7B-9180-ED7739CB807D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C2137C6-348E-4AE0-8F9D-F2FCD893B3F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E8661A0-F0B0-4B20-8B4A-57C5AFEDF8F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4222CB3-8527-4426-8DDF-C36F3266CF86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27324330-13E7-44C0-BD68-D3DDC843FAFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1CC30DA-0601-4D39-BA34-D480EE76485A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ABAB6C94-F0F8-44D7-9813-40071A43529F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B660A3A9-7585-4C64-92B5-D5F6F9169679}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72E065CC-A696-4397-9B31-F81B468405A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C89504D-3A4F-4B20-9117-4382432C2C8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF96D3A3-F902-4989-9780-5C4A7302FFDE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0770F97-66AA-4261-8008-95C114DA37F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC890423-4435-45C7-9F6B-00BFC7BC8D8C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F540E7D-BD88-4326-8920-EC0DFEFC883B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BEC3952-45FC-4770-9872-1AB6D4526DAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A622C22B-4266-4C94-A168-41ED4C39D6F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6084B3A6-969D-43AD-A8C9-7EDF50C36163}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{69216BCC-4D9C-4AD1-9622-03B34C412E8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F1893B8E-078B-4437-81A4-3E1C90BAC1D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C70D8767-95ED-44B9-926A-392EDB509726}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9271,7 +9271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3918AF20-A021-43DD-91F8-669CC9B5C16F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090A1AA1-C5AA-47C7-BC17-E941CF83696F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10564,17 +10564,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C59A49A6-6B8F-4D63-A9CF-1A98BF235E2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{641222DF-FF7C-40FE-A758-A61EA71F84D2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24CEA255-08F8-49E5-BBA7-5EE7B9D88A56}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E62D82ED-A4C9-4D01-849D-4DB1828F7A55}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{368D1DCC-F00D-4F44-BD47-D77131AC9BEB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4461524-6FC5-4E44-8CE4-A8486E0E5A52}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C70D2AB-E675-4A09-A540-1C63B8AA4E07}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70BD77B5-15F2-41FC-8F4C-E717BB5C7BE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7812A2FF-81DF-4AD4-B7AF-A3039B6FDC36}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5B0F1984-3997-49D7-8E21-D1C8D624CE24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CAE7956-F062-4DD5-91C2-2D70AAD045A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6804483-D5DB-4E54-96B6-ECBA5CE97816}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C31C64AD-3984-468D-BF91-56EFDA74E29D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1978F6E-7A8E-4D17-9AAF-F25FEAC9E847}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C443C4E-990C-497B-8644-B21084A98810}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BADE5450-2ACA-4E55-AACD-967F79E9AA97}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18CA7E31-0F94-40C8-B288-2F05C79D5449}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{644F724B-EDC2-44AF-82C5-A01EDCC8741C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECD15F67-08BA-43AC-B306-3CC6E31F9F1E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{759083DD-B863-4687-8956-AB3DA83A3FDA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4AEC215F-7410-4DA4-88D7-A18EA0A9A5A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0A9C46D-4FE8-491E-9E0C-01256A870148}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415853CA-CD4D-4528-9F36-341F69627815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8DFF97-A185-4908-9E34-DAE53082E53F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11880,17 +11880,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7792154B-EA8B-4F2F-8F8B-BD53E67F7978}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7304F8B7-1E48-4DC6-A8BC-7E6753D2381B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4BE0146-EEC6-4198-AC2B-E222173CFC3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D05FF834-2AEB-49A6-A01D-E0EBC58675F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E94152F5-3848-4D05-AD7E-D691A2FC07DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2DDDD5F6-514B-4E65-9D5A-FB89C3B22D6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8AB0D46-C04A-4E36-BA79-744BF87FD655}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F0AAA0A-FE16-409C-A985-3D1155B08D36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CCEF3AA0-69CA-4CCE-9DF5-CBFD5E9B5D06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{692DABBC-C86E-455F-801D-09C8E1716F5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3C1DDA3-711B-41C6-8DA8-8D159E7DA71C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFBE4AC2-D2E2-4C23-A6E8-25A0EB964DDE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3479472C-9829-47F0-B591-866931D5DF3A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6019AB63-D537-4951-A32E-01C6EEC6FA36}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C880C9F-1729-4928-90CD-276C3A7E98B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5EB44BE1-CAC4-43CB-9E27-BBF6366009B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5198427-F56D-43E2-B4E1-DEE5247A3EA6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD0A5C3E-FB10-4C0E-94DB-56D49F20252C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25EE604F-9C47-4BF6-BC3A-DB2E7F0336D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{07D2F7F8-0871-476B-861B-4321B7953674}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FA8304B5-0FEB-42FB-AFCA-37A1B4183143}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D579751-7E35-443C-8A8D-8DB1342BF672}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11903,7 +11903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674B4D22-A211-4456-B971-E97D32F63771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B2CB80-A0F6-4599-98DE-07452E9705EC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13196,17 +13196,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BCB3FD98-54BB-4E67-99EA-3B272945BDCF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8541D999-5E9F-4E09-90C2-F0C55132AC8F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C559B739-3BA2-44AF-80D8-32A24519A7C7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{783F8810-9E77-46C8-AFEC-16BC0B6C38C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E292B43-5F7D-4CD6-96B6-C56314B80387}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{415D38DB-DA9F-4D70-A369-A233843B1361}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B50925F2-24DA-4FF0-B4C1-D6A23C462662}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72B49349-0E58-4218-85B2-A120D691AC65}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{22940B2D-8370-4B8C-BC9D-EAFFE0138589}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F193E2D8-A175-4843-B06A-42A0CD9C972B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A935651-7788-4F50-8989-F644C9AFC8A1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A186C83D-9A72-4A94-8E4A-A68671E6A4DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70379358-F730-4DC0-911A-BAE4ED2C3E63}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B79DCE1-9E9A-4BEA-8611-B6C632F50C1D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6BFA54B-5A45-433F-9791-1BE159B7F71E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75AA9B88-210D-4A92-A809-FBF4B191FBF4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD3AC904-1317-4342-97FF-AB46612D054F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07A72034-631F-4E27-9BCB-5C36184D39E1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51B2C4F6-624C-4742-981B-703D72911BBE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1C3DECB6-A45F-4A10-96D8-2911F577F13E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A40BA931-887F-4F85-81E5-BD55D794CA6C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C954449-C3CF-4423-B348-D5564D903B7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13219,7 +13219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F477FBC-D725-474F-B298-F826776C0C98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D9BE39-FCF8-47B9-8E5E-28C50E5E83B5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14512,17 +14512,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{071F5C58-653C-4F51-8F04-669F8FF8AA38}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E25BF451-22AD-45B4-AA66-B23017BEFE49}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F6CB8BD-A32A-45C3-B79C-01BE8A715D4F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B0540CF-9832-46D6-A2F4-CB43E68E7B9B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0BCC1D01-D7CA-49BC-ACAF-1F3410FFAE3F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D4006561-A794-4C12-A22E-81EE200E89FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18B30826-1DDD-469A-A0BC-740836EEA466}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{074C04C4-DE8A-4A6D-9CAA-4FA611BB5019}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8B20BF80-D391-460F-926C-4695044EA424}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{175820BE-7D01-4BFF-9F21-6E7413FE9C9C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A143654-A8E7-42D9-BA81-9B2B7D2DE1C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A39066C3-DAFD-4A41-AC41-EF1FFA76F4D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60BF7BF8-D06E-4D27-80F2-44E60DC6032F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6295C917-C419-465D-924D-E127C812551F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8172842A-F109-4D9E-ACDB-1EFF68BDD3E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDAE5E4A-8F58-4942-9FB9-3BD02FDCE0D9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9AF508EA-20A1-4408-9D95-2E3D6B64ECA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{041DAF07-CF8B-4925-80C3-D1089BC6B0BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01F3F03B-AFC1-4E09-BC42-F1DEB2469EDE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2A4BDD0D-9ECA-47AB-82F2-E439DA0BFA1E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7B782A11-4D00-4CAE-9A1C-58E75152CC50}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8E05D5A-6059-4EFC-9E4A-AA615E705794}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14535,7 +14535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B0D919-05DD-4C2B-AB4F-B1D655C2F0E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7113735F-D4E7-4EBB-9312-0B1BC659E7F2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15828,17 +15828,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B602E1E2-1D1F-4372-8E2C-DD2DF5E99A79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE15BEDF-E932-4A7E-9E62-CD0E17CD8F7F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{178DA241-F64D-40C3-8F2D-5F3DBCB53A91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{11B0A756-EE45-415B-B9D0-9555A1D58035}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EAC9EF79-90FD-431C-8CDF-4EB58DCE24B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5DC7521-EFDB-4A3E-87FA-015B1C95B94A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{132FC859-1B56-4B97-9BEB-36315E4C10EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0EC050F-A538-4C82-940C-531C3848D4A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4982C296-6A4D-4226-98E3-3E77EF979EAF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6EA16175-A880-4D2A-A2F5-A65CAE3A1EA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A368FEDF-EE84-4421-A4C3-04B7303F7B06}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04D2FF3B-B8C7-4E4C-A737-130E5C5E59E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69BD437C-E273-4AE9-A81D-AF8661779CC9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4CC7B46-BF29-4B09-B77D-1ECD05584B3E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D79D869A-9785-4728-98F7-C8511FEC6C29}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{856F635F-AF27-4F4B-BEA1-9965FBECD9D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EDCBE42F-50CD-4E15-AED8-45E4C6C7B7AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{882EC39B-877E-4C2A-BC57-38BAB57A2340}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B24D733-F889-47C6-9000-91DDC6D04904}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{591C25DD-B92E-4442-BA74-9AB4119FD1EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8D8A6D32-463D-4707-878A-6AD4635FB9A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B878DD8-8424-4BF2-A020-8EC0AD334190}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15851,7 +15851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB406EC-BA41-4B17-9691-952BDF8D0D61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C490844-7DF0-469F-84BB-3FCD3A3C6214}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17144,17 +17144,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12A93783-4ABF-45A3-AB26-6E4AE59301BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF6E1009-AECB-4AE9-A9E2-02CE9DB8D8B4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36CFD20F-0D30-4999-AF59-17C8AEF3588E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6ADD740A-8DC4-4AA4-879E-F5D4BF58AED5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{534F76BA-87D9-4251-9674-1B8955FCAF63}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ECE7C521-BA8E-40DC-BC37-936E4F852ED1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9130B2D-A17C-4D41-A58F-A2EE4E95451D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD967FD2-3006-459D-ADEA-DA954B8E45BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1B737B97-3B2B-4100-8A9B-C12B2B218D74}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1F2637F2-CA8B-4CFB-B343-0E8234B7DFCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81F10908-1A82-46E5-8A3D-4B353DB18E35}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B48F7DB8-BE86-4B66-A0B4-26D034AED6B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D47802CB-F778-438F-B64A-C41B5954AD7B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FA7A4235-C4E5-438D-8D70-4466C4C8E33F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{962AE529-928B-465C-8860-A55B361C6719}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D3D0E74-4589-4BFD-9078-427E70712687}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8DD23E14-89E9-44D4-9AC2-B7373CCDD336}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3DBE150-43CC-41D7-95D6-29EEB86A54BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42E52B6F-6F46-4173-BFB9-A6792B939F79}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4216C896-D84B-41F0-AFE5-B7239E8DDCDD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8EED1352-739B-4851-9B2B-D54E0087B9C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63ED4A6B-ADA9-49C7-ADAA-AF8C1C304D81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
